--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268976.8703627372</v>
+        <v>268263.3625431284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4968231.017992426</v>
+        <v>5061214.838788685</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22289395.1993927</v>
+        <v>22380528.6421551</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4041050.861125655</v>
+        <v>3999581.327490713</v>
       </c>
     </row>
     <row r="11">
@@ -1856,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I22" t="n">
-        <v>9.977552361264268</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C24" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2451,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="G26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D28" t="n">
-        <v>9.977552361264268</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>22.4487593605094</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="31">
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3156,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W33" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3190,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W37" t="n">
-        <v>9.977552361264268</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3545,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S38" t="n">
-        <v>24.87477961344436</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>39.58387696184059</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="X40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>39.58387696184059</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.86547882798917</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>9.977552361264268</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4153,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.3517937444931</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C20" t="n">
-        <v>118.3517937444931</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D20" t="n">
-        <v>118.3517937444931</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E20" t="n">
-        <v>78.36807964162378</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F20" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G20" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K20" t="n">
-        <v>42.35474834916943</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L20" t="n">
-        <v>81.54278654139161</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M20" t="n">
-        <v>81.54278654139161</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N20" t="n">
-        <v>119.1474696551402</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O20" t="n">
-        <v>158.3355078473624</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R20" t="n">
-        <v>158.3355078473624</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S20" t="n">
-        <v>158.3355078473624</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T20" t="n">
-        <v>158.3355078473624</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U20" t="n">
-        <v>158.3355078473624</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3355078473624</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W20" t="n">
-        <v>158.3355078473624</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43.15042425981653</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K21" t="n">
-        <v>40.77139327069581</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L21" t="n">
-        <v>40.77139327069581</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M21" t="n">
-        <v>79.95943146291799</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N21" t="n">
-        <v>119.1474696551402</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O21" t="n">
-        <v>158.3355078473624</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P21" t="n">
-        <v>158.3355078473624</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U21" t="n">
-        <v>158.3355078473624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V21" t="n">
-        <v>158.3355078473624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W21" t="n">
-        <v>118.3517937444931</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X21" t="n">
-        <v>118.3517937444931</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y21" t="n">
-        <v>78.36807964162378</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.22875997826529</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C22" t="n">
-        <v>53.22875997826529</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D22" t="n">
-        <v>53.22875997826529</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E22" t="n">
-        <v>13.245045875396</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F22" t="n">
-        <v>13.245045875396</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G22" t="n">
-        <v>13.245045875396</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H22" t="n">
-        <v>13.245045875396</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L22" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M22" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N22" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V22" t="n">
-        <v>93.21247408113457</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W22" t="n">
-        <v>93.21247408113457</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X22" t="n">
-        <v>93.21247408113457</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.22875997826529</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C23" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D23" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E23" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F23" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
-        <v>15.2366994040306</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L23" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M23" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N23" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O23" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S23" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T23" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U23" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V23" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W23" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X23" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y23" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C24" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D24" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L24" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M24" t="n">
-        <v>42.35474834916943</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N24" t="n">
-        <v>42.35474834916943</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O24" t="n">
-        <v>79.95943146291799</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P24" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U24" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V24" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W24" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X24" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y24" t="n">
-        <v>38.38436553875449</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="G25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="H25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="I25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J25" t="n">
-        <v>3.166710156947247</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K25" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T25" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U25" t="n">
-        <v>53.22875997826529</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V25" t="n">
-        <v>13.245045875396</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W25" t="n">
-        <v>13.245045875396</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.166710156947247</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="C26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="D26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="E26" t="n">
-        <v>83.13413836268582</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="F26" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G26" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H26" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L26" t="n">
-        <v>79.95943146291799</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M26" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N26" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O26" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R26" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S26" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T26" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="X26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="Y26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C27" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L27" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M27" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N27" t="n">
-        <v>40.77139327069581</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O27" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P27" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T27" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U27" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V27" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W27" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X27" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.245045875396</v>
+        <v>59.81587415154178</v>
       </c>
       <c r="C28" t="n">
-        <v>13.245045875396</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="D28" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="E28" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="F28" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="G28" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="H28" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="I28" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="J28" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K28" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L28" t="n">
-        <v>30.48083516466022</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M28" t="n">
-        <v>69.6688733568824</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N28" t="n">
-        <v>108.8569115491046</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O28" t="n">
-        <v>133.1961881840039</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P28" t="n">
-        <v>133.1961881840039</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.21247408113457</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.21247408113457</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.21247408113457</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T28" t="n">
-        <v>53.22875997826529</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U28" t="n">
-        <v>13.245045875396</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V28" t="n">
-        <v>13.245045875396</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W28" t="n">
-        <v>13.245045875396</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X28" t="n">
-        <v>13.245045875396</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.245045875396</v>
+        <v>87.68458653569951</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C29" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D29" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E29" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L29" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M29" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N29" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O29" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T29" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U29" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V29" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W29" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X29" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y29" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L30" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M30" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N30" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O30" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P30" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>83.13413836268582</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T30" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U30" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V30" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W30" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X30" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.21247408113457</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C31" t="n">
-        <v>93.21247408113457</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D31" t="n">
-        <v>93.21247408113457</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U31" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V31" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W31" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X31" t="n">
-        <v>93.21247408113457</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.21247408113457</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>123.1178524655551</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C32" t="n">
-        <v>123.1178524655551</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D32" t="n">
-        <v>123.1178524655551</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E32" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F32" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G32" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H32" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L32" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M32" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N32" t="n">
-        <v>120.7308247336138</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O32" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S32" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T32" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U32" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V32" t="n">
-        <v>123.1178524655551</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W32" t="n">
-        <v>123.1178524655551</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X32" t="n">
-        <v>123.1178524655551</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y32" t="n">
-        <v>123.1178524655551</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C33" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M33" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N33" t="n">
-        <v>81.54278654139161</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O33" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P33" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T33" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U33" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W33" t="n">
-        <v>123.1178524655551</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X33" t="n">
-        <v>123.1178524655551</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y33" t="n">
-        <v>123.1178524655551</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C34" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D34" t="n">
-        <v>123.1178524655551</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E34" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F34" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T34" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U34" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V34" t="n">
-        <v>133.1961881840039</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W34" t="n">
-        <v>133.1961881840039</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X34" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.2764642733967</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C35" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L35" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M35" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N35" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O35" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R35" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S35" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T35" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U35" t="n">
-        <v>148.2438924791353</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V35" t="n">
-        <v>148.2438924791353</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W35" t="n">
-        <v>148.2438924791353</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X35" t="n">
-        <v>148.2438924791353</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y35" t="n">
-        <v>108.260178376266</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C36" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L36" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M36" t="n">
-        <v>119.1474696551402</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N36" t="n">
-        <v>119.1474696551402</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O36" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P36" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S36" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T36" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U36" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V36" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W36" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X36" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y36" t="n">
-        <v>38.38436553875449</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C37" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D37" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T37" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U37" t="n">
-        <v>53.22875997826529</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V37" t="n">
-        <v>13.245045875396</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W37" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X37" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>40.77139327069581</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M38" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N38" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O38" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>108.260178376266</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S38" t="n">
-        <v>83.13413836268582</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T38" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U38" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V38" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W38" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X38" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y38" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.920842809732961</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C39" t="n">
-        <v>3.920842809732961</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D39" t="n">
-        <v>3.920842809732961</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E39" t="n">
-        <v>3.920842809732961</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F39" t="n">
-        <v>3.920842809732961</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G39" t="n">
-        <v>3.920842809732961</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H39" t="n">
-        <v>3.920842809732961</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I39" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>42.35474834916943</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L39" t="n">
-        <v>81.54278654139161</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M39" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N39" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O39" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P39" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U39" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V39" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W39" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X39" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y39" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C40" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D40" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E40" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W40" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X40" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.28974392317502</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.36807964162378</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C41" t="n">
-        <v>78.36807964162378</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D41" t="n">
-        <v>78.36807964162378</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E41" t="n">
-        <v>78.36807964162378</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F41" t="n">
-        <v>78.36807964162378</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G41" t="n">
-        <v>78.36807964162378</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H41" t="n">
-        <v>55.22041350689989</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I41" t="n">
-        <v>15.2366994040306</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>42.35474834916943</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L41" t="n">
-        <v>81.54278654139161</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M41" t="n">
-        <v>119.1474696551402</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N41" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O41" t="n">
-        <v>119.1474696551402</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W41" t="n">
-        <v>118.3517937444931</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X41" t="n">
-        <v>78.36807964162378</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.36807964162378</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.166710156947247</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="D42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="E42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M42" t="n">
-        <v>42.35474834916943</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N42" t="n">
-        <v>79.95943146291799</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O42" t="n">
-        <v>119.1474696551402</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P42" t="n">
-        <v>119.1474696551402</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W42" t="n">
-        <v>118.3517937444931</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X42" t="n">
-        <v>78.36807964162378</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y42" t="n">
-        <v>38.38436553875449</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U43" t="n">
-        <v>93.21247408113457</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V43" t="n">
-        <v>93.21247408113457</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W43" t="n">
-        <v>93.21247408113457</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X43" t="n">
-        <v>83.13413836268582</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.15042425981653</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
   </sheetData>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>222.0595851106659</v>
       </c>
       <c r="L17" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>232.2363820781829</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>233.2027298209549</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>139.8111730400443</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9255,13 +9257,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>144.4863932953546</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>135.9441414800156</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>141.9515081517068</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>136.8544103469236</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>140.3466873027529</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9401,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>275.3502919318278</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N20" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>269.6820883835273</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M21" t="n">
-        <v>181.7179108838589</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N21" t="n">
-        <v>170.9255890451739</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O21" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>164.5669020000612</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,13 +9564,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N22" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9638,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
-        <v>268.3307616249986</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>177.4253159361996</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O24" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9804,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P26" t="n">
-        <v>270.8168727171101</v>
+        <v>257.7082725202194</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>176.5389081776</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O27" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10039,10 +10041,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10112,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L29" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
-        <v>268.3307616249986</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L30" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M30" t="n">
-        <v>181.7179108838589</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N30" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10278,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L32" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>268.9969405584315</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O32" t="n">
-        <v>268.0827398194126</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10434,19 +10436,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>170.9255890451739</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O33" t="n">
-        <v>180.5807728421703</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10515,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L35" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O35" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M36" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10750,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
-        <v>273.750943367713</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N38" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>177.4253159361996</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10917,10 +10919,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>259.6737280068211</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L41" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>268.3307616249986</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P41" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,19 +11147,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>181.7179108838589</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N42" t="n">
-        <v>169.3262404810591</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O42" t="n">
-        <v>182.180121406285</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q42" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,13 +11223,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11303,16 +11305,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -11388,13 +11390,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>413.3330034494497</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>337.5050680500818</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>208.5061555047206</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>10.2143475895569</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>98.18810008695783</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>169.7134370381525</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>198.1949946291363</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>224.2064403159192</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>177.862246116252</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>165.2770870329425</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>250.1679092581427</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>216.8497115870392</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>127.3027654569188</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24066,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24102,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>212.111106199079</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>183.2066327192466</v>
       </c>
       <c r="Y21" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I22" t="n">
-        <v>145.472922565994</v>
+        <v>132.8841224430275</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24184,16 +24186,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>358.4325474141941</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>187.5597000970293</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W23" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C24" t="n">
-        <v>137.8430201603266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>133.3437862061145</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24339,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W24" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,13 +24384,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2712073926317</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>246.7351523946503</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V25" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>215.7321030277729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>392.5654507069698</v>
       </c>
       <c r="G26" t="n">
-        <v>375.7188605532945</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H26" t="n">
-        <v>299.8909251539266</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,7 +24499,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>132.0992941419972</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D28" t="n">
-        <v>138.6379206569481</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24643,7 +24645,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24652,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>196.1358939915854</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24728,19 +24730,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>314.3754898894238</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>136.8176922758487</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T30" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="31">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9852032860598</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,13 +24976,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25044,19 +25046,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>208.4992929001388</v>
       </c>
       <c r="W33" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25078,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>138.6379206569481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25126,19 +25128,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>329.8082620072386</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>345.4298064291826</v>
       </c>
       <c r="Y35" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>112.5795867366496</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>166.0988188154638</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9852032860598</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,16 +25365,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>246.7351523946503</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V37" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W37" t="n">
-        <v>276.5454459753267</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>110.2852409793091</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S38" t="n">
-        <v>184.145289972801</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T38" t="n">
-        <v>183.5119726022908</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>132.414296148136</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>65.09533860212863</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>160.580851732981</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U39" t="n">
-        <v>186.3575051191342</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V39" t="n">
-        <v>193.2167101875847</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.2481032200967</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>246.9391213747504</v>
+        <v>264.0742389760816</v>
       </c>
       <c r="X40" t="n">
-        <v>186.1257784271966</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>316.5586126423905</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>170.8920126085653</v>
+        <v>187.9095370861751</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>309.6570917555724</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X41" t="n">
-        <v>330.1472237166284</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>131.6677048218782</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>150.8887378303428</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>212.111106199079</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X42" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.0988188154638</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.2481032200967</v>
+        <v>154.2116889873065</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>246.7351523946503</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>215.7321030277729</v>
+        <v>203.1433029048063</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.0007763902542</v>
+        <v>192.964362157464</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>364.646527855934</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,13 +25918,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>144.7134224918944</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>157.2656276977065</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,10 +26043,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26080,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333272.9571474838</v>
+        <v>335003.9599378366</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367132.8408820863</v>
+        <v>355788.0754673379</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367132.8408820863</v>
+        <v>357450.1188230735</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367132.8408820864</v>
+        <v>357450.1188230735</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367132.8408820863</v>
+        <v>357450.1188230736</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367132.8408820865</v>
+        <v>357450.1188230734</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367132.8408820864</v>
+        <v>357450.1188230734</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367132.8408820865</v>
+        <v>357450.1188230735</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367132.8408820865</v>
+        <v>355788.075467338</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333272.9571474838</v>
+        <v>355788.0754673379</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>53753.7027657232</v>
       </c>
       <c r="C2" t="n">
-        <v>53753.7027657232</v>
+        <v>53753.70276572321</v>
       </c>
       <c r="D2" t="n">
         <v>53753.7027657232</v>
@@ -26326,34 +26328,34 @@
         <v>53753.7027657232</v>
       </c>
       <c r="G2" t="n">
-        <v>53753.70276572321</v>
+        <v>54032.71402034028</v>
       </c>
       <c r="H2" t="n">
-        <v>59211.39971146602</v>
+        <v>57382.7965172097</v>
       </c>
       <c r="I2" t="n">
-        <v>59211.39971146602</v>
+        <v>57650.69256249411</v>
       </c>
       <c r="J2" t="n">
-        <v>59211.39971146597</v>
+        <v>57650.69256249412</v>
       </c>
       <c r="K2" t="n">
-        <v>59211.39971146599</v>
+        <v>57650.69256249411</v>
       </c>
       <c r="L2" t="n">
-        <v>59211.39971146602</v>
+        <v>57650.69256249413</v>
       </c>
       <c r="M2" t="n">
-        <v>59211.39971146602</v>
+        <v>57650.69256249414</v>
       </c>
       <c r="N2" t="n">
-        <v>59211.39971146601</v>
+        <v>57650.69256249413</v>
       </c>
       <c r="O2" t="n">
-        <v>59211.39971146602</v>
+        <v>57382.7965172097</v>
       </c>
       <c r="P2" t="n">
-        <v>53753.7027657232</v>
+        <v>57382.79651720971</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
-        <v>10680.08625919725</v>
+        <v>6381.133168403663</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>523.793652481103</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5590.376790797369</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26432,34 @@
         <v>10750.74055314464</v>
       </c>
       <c r="G4" t="n">
-        <v>10750.74055314464</v>
+        <v>10809.3838736743</v>
       </c>
       <c r="H4" t="n">
-        <v>11897.85367509446</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="I4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="J4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="K4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="L4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="M4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="N4" t="n">
-        <v>11897.85367509446</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="O4" t="n">
-        <v>11897.85367509446</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="P4" t="n">
-        <v>10750.74055314464</v>
+        <v>11513.51303840759</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="H5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="I5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>9375.362212578555</v>
       </c>
       <c r="C6" t="n">
+        <v>9375.36221257857</v>
+      </c>
+      <c r="D6" t="n">
         <v>9375.362212578562</v>
       </c>
-      <c r="D6" t="n">
-        <v>9375.362212578555</v>
-      </c>
       <c r="E6" t="n">
+        <v>43002.96221257855</v>
+      </c>
+      <c r="F6" t="n">
         <v>43002.96221257856</v>
       </c>
-      <c r="F6" t="n">
-        <v>43002.96221257855</v>
-      </c>
       <c r="G6" t="n">
-        <v>43002.96221257857</v>
+        <v>42563.69575407896</v>
       </c>
       <c r="H6" t="n">
-        <v>34226.7600578944</v>
+        <v>37930.43660576489</v>
       </c>
       <c r="I6" t="n">
-        <v>44906.84631709165</v>
+        <v>43879.60523922827</v>
       </c>
       <c r="J6" t="n">
-        <v>44906.84631709161</v>
+        <v>44403.39889170937</v>
       </c>
       <c r="K6" t="n">
-        <v>44906.84631709162</v>
+        <v>44403.39889170937</v>
       </c>
       <c r="L6" t="n">
-        <v>44906.84631709165</v>
+        <v>44403.39889170938</v>
       </c>
       <c r="M6" t="n">
-        <v>44906.84631709165</v>
+        <v>44403.39889170939</v>
       </c>
       <c r="N6" t="n">
-        <v>44906.84631709164</v>
+        <v>44403.39889170938</v>
       </c>
       <c r="O6" t="n">
-        <v>44906.84631709165</v>
+        <v>44311.56977416854</v>
       </c>
       <c r="P6" t="n">
-        <v>43002.96221257855</v>
+        <v>38721.19298337119</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>23.65055712894552</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.65055712894552</v>
       </c>
     </row>
   </sheetData>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>23.65055712894552</v>
       </c>
     </row>
   </sheetData>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N20" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M21" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N21" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,13 +36284,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M22" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N22" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O24" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P26" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M30" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N30" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O32" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O33" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L35" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N42" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
